--- a/DATA_goal/Junction_Flooding_307.xlsx
+++ b/DATA_goal/Junction_Flooding_307.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44988.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.77</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.42</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.49</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.78</v>
+        <v>27.78</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.08</v>
+        <v>20.77</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.98</v>
+        <v>9.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.92</v>
+        <v>29.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.71</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.22</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.93</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.15</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.39</v>
+        <v>13.87</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>14.71</v>
+        <v>147.12</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.81</v>
+        <v>28.07</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.8</v>
+        <v>18</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.23</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.59</v>
+        <v>15.86</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.65</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.14</v>
+        <v>11.38</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.64</v>
+        <v>26.43</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44988.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.62</v>
+        <v>16.18</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.72</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.75</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.55</v>
+        <v>35.47</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.82</v>
+        <v>28.15</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.61</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.76</v>
+        <v>47.63</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.98</v>
+        <v>19.78</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.44</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.17</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.51</v>
+        <v>15.15</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.11</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.78</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.8</v>
+        <v>17.98</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.1</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.01</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>18.72</v>
+        <v>187.24</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.57</v>
+        <v>35.73</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.36</v>
+        <v>23.64</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.23</v>
+        <v>12.32</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.27</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.38</v>
+        <v>23.8</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.42</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.08</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.48</v>
+        <v>14.81</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.37</v>
+        <v>43.67</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.49</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.48</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="4">
@@ -863,16 +863,16 @@
         <v>44988.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>0</v>
@@ -881,85 +881,85 @@
         <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.94</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="X4" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="AG4" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="AH4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44988.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.1</v>
+        <v>21.02</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.57</v>
+        <v>15.69</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.25</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.59</v>
+        <v>45.87</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.74</v>
+        <v>37.35</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.79</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.88</v>
+        <v>58.79</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.56</v>
+        <v>25.6</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.21</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.7</v>
+        <v>17.04</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.83</v>
+        <v>18.3</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.93</v>
+        <v>19.29</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.65</v>
+        <v>16.54</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.35</v>
+        <v>23.48</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.94</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>24.49</v>
+        <v>244.9</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.61</v>
+        <v>46.1</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.53</v>
+        <v>15.27</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.09</v>
+        <v>30.93</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.25</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.94</v>
+        <v>29.4</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.48</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.2</v>
+        <v>11.96</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.41</v>
+        <v>14.07</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.93</v>
+        <v>19.34</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.32</v>
+        <v>53.19</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.59</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.91</v>
+        <v>19.08</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_307.xlsx
+++ b/DATA_goal/Junction_Flooding_307.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,100 +658,100 @@
         <v>12.77</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.42</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.49</v>
+        <v>3.488</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>27.78</v>
+        <v>27.776</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>20.77</v>
+        <v>20.765</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>9.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>29.19</v>
+        <v>29.191</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>15.71</v>
+        <v>15.707</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.22</v>
+        <v>6.218</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.112</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10.93</v>
+        <v>10.928</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>11.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.26</v>
+        <v>3.255</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.15</v>
+        <v>10.151</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>13.87</v>
+        <v>13.871</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>9.122999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>2.77</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.59</v>
+        <v>1.592</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>147.12</v>
+        <v>147.125</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>28.07</v>
+        <v>28.067</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>9.369999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>18</v>
+        <v>18.004</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.23</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.73</v>
+        <v>2.728</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>15.86</v>
+        <v>15.858</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>8.276</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.65</v>
+        <v>7.652</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.07</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.38</v>
+        <v>11.378</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>2.869</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>26.43</v>
+        <v>26.432</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.96</v>
+        <v>4.957</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>11.71</v>
+        <v>11.713</v>
       </c>
     </row>
     <row r="3">
@@ -762,100 +762,100 @@
         <v>16.18</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.72</v>
+        <v>11.715</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.75</v>
+        <v>1.753</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>35.47</v>
+        <v>35.474</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>28.15</v>
+        <v>28.154</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>12.61</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>47.63</v>
+        <v>47.626</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>19.78</v>
+        <v>19.779</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>8.528</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.44</v>
+        <v>12.442</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>14.17</v>
+        <v>14.169</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.15</v>
+        <v>15.149</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.11</v>
+        <v>4.106</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.78</v>
+        <v>12.783</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>17.98</v>
+        <v>17.979</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.1</v>
+        <v>11.103</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.38</v>
+        <v>1.379</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.01</v>
+        <v>1.007</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>187.24</v>
+        <v>187.242</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>35.73</v>
+        <v>35.731</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.8</v>
+        <v>11.799</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>23.64</v>
+        <v>23.641</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>12.32</v>
+        <v>12.324</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.27</v>
+        <v>2.266</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>23.8</v>
+        <v>23.796</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.42</v>
+        <v>10.422</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.41</v>
+        <v>9.404999999999999</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.08</v>
+        <v>11.076</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>14.81</v>
+        <v>14.812</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.165</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>43.67</v>
+        <v>43.666</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.49</v>
+        <v>6.485</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>14.75</v>
+        <v>14.751</v>
       </c>
     </row>
     <row r="4">
@@ -863,16 +863,16 @@
         <v>44988.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.33</v>
+        <v>0.329</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.099</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.86</v>
+        <v>0.861</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>0</v>
@@ -881,40 +881,40 @@
         <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>8.94</v>
+        <v>8.936999999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.582</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.135</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.24</v>
+        <v>0.236</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.2</v>
+        <v>0.199</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.118</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.38</v>
+        <v>0.376</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.622</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.595</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.827</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.34</v>
+        <v>0.339</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>0</v>
@@ -923,43 +923,43 @@
         <v>1.71</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.35</v>
+        <v>0.347</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.07</v>
+        <v>1.069</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.37</v>
+        <v>0.367</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="Z4" s="4" t="n">
         <v>4</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.3</v>
+        <v>0.299</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.507</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.35</v>
+        <v>0.346</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.673</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>9.06</v>
+        <v>9.061</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.039</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>19.08</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44988.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>15.01</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>29.95</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>95.97</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>19.09</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.27</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>27.69</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.8</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_307.xlsx
+++ b/DATA_goal/Junction_Flooding_307.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,12 +443,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
@@ -469,7 +469,7 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,103 +967,207 @@
         <v>44988.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.02</v>
+        <v>21.015</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.69</v>
+        <v>15.689</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.25</v>
+        <v>1.252</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>45.87</v>
+        <v>45.865</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>37.35</v>
+        <v>37.354</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.79</v>
+        <v>16.792</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>58.79</v>
+        <v>58.787</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>25.6</v>
+        <v>25.596</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>11.21</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.04</v>
+        <v>17.037</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>18.3</v>
+        <v>18.301</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>19.29</v>
+        <v>19.286</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.21</v>
+        <v>5.213</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.54</v>
+        <v>16.542</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>23.48</v>
+        <v>23.478</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.94</v>
+        <v>13.936</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.798</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.856</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>244.9</v>
+        <v>244.899</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>46.1</v>
+        <v>46.095</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.27</v>
+        <v>15.269</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>30.93</v>
+        <v>30.932</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>16.25</v>
+        <v>16.254</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.46</v>
+        <v>2.464</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>29.4</v>
+        <v>29.398</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.48</v>
+        <v>13.479</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.96</v>
+        <v>11.964</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.07</v>
+        <v>14.074</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>19.34</v>
+        <v>19.344</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>53.19</v>
+        <v>53.187</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.59</v>
+        <v>8.586</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.08</v>
+        <v>19.082</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44988.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>29.95</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>95.97</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>27.69</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>7.8</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_307.xlsx
+++ b/DATA_goal/Junction_Flooding_307.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,12 +443,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
@@ -469,7 +469,7 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,207 +967,103 @@
         <v>44988.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.015</v>
+        <v>21.02</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.689</v>
+        <v>15.69</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.252</v>
+        <v>1.25</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>45.865</v>
+        <v>45.87</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>37.354</v>
+        <v>37.35</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.792</v>
+        <v>16.79</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>58.787</v>
+        <v>58.79</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>25.596</v>
+        <v>25.6</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>11.21</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.037</v>
+        <v>17.04</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>18.301</v>
+        <v>18.3</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>19.286</v>
+        <v>19.29</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.213</v>
+        <v>5.21</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.542</v>
+        <v>16.54</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>23.478</v>
+        <v>23.48</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.936</v>
+        <v>13.94</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.798</v>
+        <v>0.8</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.856</v>
+        <v>0.86</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>244.899</v>
+        <v>244.9</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>46.095</v>
+        <v>46.1</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.269</v>
+        <v>15.27</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>30.932</v>
+        <v>30.93</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>16.254</v>
+        <v>16.25</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.464</v>
+        <v>2.46</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>29.398</v>
+        <v>29.4</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.479</v>
+        <v>13.48</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.964</v>
+        <v>11.96</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.074</v>
+        <v>14.07</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>19.344</v>
+        <v>19.34</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>53.187</v>
+        <v>53.19</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.586</v>
+        <v>8.59</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.082</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44988.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>15.01</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>29.95</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>95.97</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>19.09</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.27</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>27.69</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.8</v>
+        <v>19.08</v>
       </c>
     </row>
   </sheetData>
